--- a/prix/tube-alpex.xlsx
+++ b/prix/tube-alpex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60292FB1-98CA-4D40-B1DB-8BC070A4D5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA167AF9-182C-409B-93F8-C8A7E7834E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
+    <workbookView xWindow="996" yWindow="972" windowWidth="13236" windowHeight="9708" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>path</t>
   </si>
@@ -168,15 +168,6 @@
   </si>
   <si>
     <t>26</t>
-  </si>
-  <si>
-    <t>tube-alpex/Tube-Alpex-isolé-bleu.png</t>
-  </si>
-  <si>
-    <t>tube-alpex/Tube-Alpex-isolé-rouge.png</t>
-  </si>
-  <si>
-    <t>tube-alpex/Tube-Alpex.png</t>
   </si>
 </sst>
 </file>
@@ -587,7 +578,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,9 +622,6 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -648,9 +636,6 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
@@ -665,9 +650,6 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -682,9 +664,6 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -699,9 +678,6 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -716,9 +692,6 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -733,9 +706,6 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -750,9 +720,6 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -767,9 +734,6 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
@@ -784,9 +748,6 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -801,9 +762,6 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -818,9 +776,6 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
@@ -835,9 +790,6 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -852,9 +804,6 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
@@ -869,9 +818,6 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -885,10 +831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>45</v>
-      </c>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
@@ -902,10 +845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>45</v>
-      </c>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -919,10 +859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>44</v>
-      </c>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -930,7 +867,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="9">
-        <v>4.24</v>
+        <v>158.75</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>40</v>

--- a/prix/tube-alpex.xlsx
+++ b/prix/tube-alpex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E71B550-5F8B-44F5-A511-9A4D5EAD7E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC109EC-4C99-4243-A4E3-2664617966C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>path</t>
   </si>
@@ -605,7 +605,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,8 +945,8 @@
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7">
-        <v>16</v>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="9">
         <v>158.75</v>

--- a/prix/tube-alpex.xlsx
+++ b/prix/tube-alpex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC109EC-4C99-4243-A4E3-2664617966C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAE534-E05A-42D0-A3A3-B47124999BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>path</t>
   </si>
@@ -161,12 +161,6 @@
     <t>43123019</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>tube-alpex/Tube-Alpex-gaine-bleue.png</t>
   </si>
   <si>
@@ -195,6 +189,30 @@
   </si>
   <si>
     <t>20-2,50m</t>
+  </si>
+  <si>
+    <t>Pex tube 20x2 isolé rouge</t>
+  </si>
+  <si>
+    <t>43123020</t>
+  </si>
+  <si>
+    <t>16-25m</t>
+  </si>
+  <si>
+    <t>16-50m</t>
+  </si>
+  <si>
+    <t>20-25m</t>
+  </si>
+  <si>
+    <t>20-50m</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -204,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +238,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -241,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -267,6 +297,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18B34CA-74C9-46C9-A5CE-03F7E37895F6}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +647,7 @@
     <col min="2" max="2" width="29.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="7"/>
     <col min="4" max="5" width="11.5546875" style="6"/>
-    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="8" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -639,7 +672,9 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -651,13 +686,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9">
         <v>96.15</v>
@@ -665,16 +700,19 @@
       <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D3" s="9">
         <v>88.9</v>
@@ -682,16 +720,19 @@
       <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9">
         <v>141.72</v>
@@ -699,16 +740,19 @@
       <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="F4" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9">
         <v>141.72</v>
@@ -716,16 +760,19 @@
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="F5" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9">
         <v>63.08</v>
@@ -733,16 +780,19 @@
       <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="F6" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D7" s="9">
         <v>63.08</v>
@@ -750,16 +800,19 @@
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F7" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9">
         <v>2.0100000000000002</v>
@@ -767,16 +820,19 @@
       <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="F8" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9">
         <v>3.75</v>
@@ -784,16 +840,19 @@
       <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="9">
         <v>7.07</v>
@@ -801,16 +860,19 @@
       <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="F10" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="9">
         <v>12.61</v>
@@ -818,16 +880,19 @@
       <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="F11" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="9">
         <v>8.65</v>
@@ -835,16 +900,19 @@
       <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="F12" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D13" s="9">
         <v>208.51</v>
@@ -852,16 +920,19 @@
       <c r="E13" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="F13" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9">
         <v>157.20000000000002</v>
@@ -869,16 +940,19 @@
       <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="F14" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7">
-        <v>16</v>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="9">
         <v>67.8</v>
@@ -886,16 +960,19 @@
       <c r="E15" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7">
-        <v>16</v>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="9">
         <v>106.87</v>
@@ -903,16 +980,19 @@
       <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
-        <v>16</v>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="9">
         <v>70.37</v>
@@ -920,16 +1000,19 @@
       <c r="E17" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7">
-        <v>16</v>
+      <c r="C18" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="9">
         <v>106.87</v>
@@ -937,16 +1020,19 @@
       <c r="E18" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D19" s="9">
         <v>158.75</v>
@@ -954,8 +1040,32 @@
       <c r="E19" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="F19" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="9">
+        <v>158.75</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prix/tube-alpex.xlsx
+++ b/prix/tube-alpex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAE534-E05A-42D0-A3A3-B47124999BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238EE90-FBE9-4787-801F-9C6141C2924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>path</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Pex tube 20x2 isolé rouge</t>
   </si>
   <si>
-    <t>43123020</t>
-  </si>
-  <si>
     <t>16-25m</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
   </si>
   <si>
     <t>disponible</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -271,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -300,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,9 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18B34CA-74C9-46C9-A5CE-03F7E37895F6}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -673,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -692,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9">
         <v>96.15</v>
@@ -700,8 +695,8 @@
       <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>58</v>
+      <c r="F2" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -712,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="9">
         <v>88.9</v>
@@ -720,8 +715,8 @@
       <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>58</v>
+      <c r="F3" s="11">
+        <v>2.8</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -732,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9">
         <v>141.72</v>
@@ -740,8 +735,8 @@
       <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>58</v>
+      <c r="F4" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -752,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="9">
         <v>141.72</v>
@@ -760,8 +755,8 @@
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>58</v>
+      <c r="F5" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -772,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9">
         <v>63.08</v>
@@ -780,8 +775,8 @@
       <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>58</v>
+      <c r="F6" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -792,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="9">
         <v>63.08</v>
@@ -800,8 +795,8 @@
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>58</v>
+      <c r="F7" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -820,8 +815,8 @@
       <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>58</v>
+      <c r="F8" s="11">
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -840,8 +835,8 @@
       <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>58</v>
+      <c r="F9" s="11">
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -860,8 +855,8 @@
       <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>58</v>
+      <c r="F10" s="11">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -880,8 +875,8 @@
       <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>58</v>
+      <c r="F11" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -900,8 +895,8 @@
       <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>58</v>
+      <c r="F12" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -912,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9">
         <v>208.51</v>
@@ -920,8 +915,8 @@
       <c r="E13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>58</v>
+      <c r="F13" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -932,7 +927,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="9">
         <v>157.20000000000002</v>
@@ -940,8 +935,8 @@
       <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>58</v>
+      <c r="F14" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -952,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9">
         <v>67.8</v>
@@ -960,8 +955,8 @@
       <c r="E15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>58</v>
+      <c r="F15" s="11">
+        <v>1.9999999999999876</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -972,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="9">
         <v>106.87</v>
@@ -980,8 +975,8 @@
       <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>58</v>
+      <c r="F16" s="11">
+        <v>3.0000000000000133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -992,7 +987,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="9">
         <v>70.37</v>
@@ -1000,8 +995,8 @@
       <c r="E17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>58</v>
+      <c r="F17" s="11">
+        <v>-1.2434497875801753E-14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1012,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="9">
         <v>106.87</v>
@@ -1020,8 +1015,8 @@
       <c r="E18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>58</v>
+      <c r="F18" s="11">
+        <v>5.0000000000000213</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1032,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9">
         <v>158.75</v>
@@ -1040,8 +1035,8 @@
       <c r="E19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>58</v>
+      <c r="F19" s="11">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,16 +1047,16 @@
         <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="9">
         <v>158.75</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>58</v>
+      <c r="E20" s="10">
+        <v>43123020</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/prix/tube-alpex.xlsx
+++ b/prix/tube-alpex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238EE90-FBE9-4787-801F-9C6141C2924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BB0D4D-B24F-4D04-BCB0-877A711C9548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -295,7 +295,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -642,7 +645,7 @@
     <col min="2" max="2" width="29.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="7"/>
     <col min="4" max="5" width="11.5546875" style="6"/>
-    <col min="6" max="6" width="22.77734375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="12" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -667,7 +670,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="1"/>
@@ -695,7 +698,7 @@
       <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>5</v>
       </c>
     </row>
@@ -715,7 +718,7 @@
       <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>2.8</v>
       </c>
     </row>
@@ -735,7 +738,7 @@
       <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>4</v>
       </c>
     </row>
@@ -755,7 +758,7 @@
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>5</v>
       </c>
     </row>
@@ -775,7 +778,7 @@
       <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>0</v>
       </c>
     </row>
@@ -795,7 +798,7 @@
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
     </row>
@@ -815,7 +818,7 @@
       <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>468</v>
       </c>
     </row>
@@ -835,7 +838,7 @@
       <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>315</v>
       </c>
     </row>
@@ -855,7 +858,7 @@
       <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="12">
         <v>90</v>
       </c>
     </row>
@@ -875,7 +878,7 @@
       <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
     </row>
@@ -895,7 +898,7 @@
       <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>0</v>
       </c>
     </row>
@@ -915,7 +918,7 @@
       <c r="E13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>1</v>
       </c>
     </row>
@@ -935,7 +938,7 @@
       <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="12">
         <v>3</v>
       </c>
     </row>
@@ -955,7 +958,7 @@
       <c r="E15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="12">
         <v>1.9999999999999876</v>
       </c>
     </row>
@@ -975,7 +978,7 @@
       <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="12">
         <v>3.0000000000000133</v>
       </c>
     </row>
@@ -995,7 +998,7 @@
       <c r="E17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>-1.2434497875801753E-14</v>
       </c>
     </row>
@@ -1015,7 +1018,7 @@
       <c r="E18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="12">
         <v>5.0000000000000213</v>
       </c>
     </row>
@@ -1035,7 +1038,7 @@
       <c r="E19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="12">
         <v>250</v>
       </c>
     </row>
@@ -1050,12 +1053,12 @@
         <v>55</v>
       </c>
       <c r="D20" s="9">
-        <v>158.75</v>
+        <v>3.17</v>
       </c>
       <c r="E20" s="10">
         <v>43123020</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="12">
         <v>0</v>
       </c>
     </row>
